--- a/迁移相关/Q1模块划分.xlsx
+++ b/迁移相关/Q1模块划分.xlsx
@@ -1,23 +1,477 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="6"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="综合管理系统" sheetId="1" r:id="rId1"/>
+    <sheet name="卡务中心" sheetId="2" r:id="rId2"/>
+    <sheet name="消费管理系统" sheetId="3" r:id="rId3"/>
+    <sheet name="水控管理系统" sheetId="4" r:id="rId4"/>
+    <sheet name="电控管理系统" sheetId="5" r:id="rId5"/>
+    <sheet name="门控管理系统" sheetId="6" r:id="rId6"/>
+    <sheet name="智能控制系统" sheetId="8" r:id="rId7"/>
+    <sheet name="智慧班牌系统" sheetId="7" r:id="rId8"/>
+    <sheet name="结算报表中心" sheetId="9" r:id="rId9"/>
+    <sheet name="订餐管理系统" sheetId="10" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="122211" fullCalcOnLoad="1"/>
+  <calcPr calcId="122211"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="119">
+  <si>
+    <t>综合管理系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统基础配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统高级配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡务中心</t>
+  </si>
+  <si>
+    <t>卡类管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>错扣补款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>充值/退款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消费管理系统</t>
+  </si>
+  <si>
+    <t>消费设备管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>折扣管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>限额管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>限次管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消费设备分配</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>补助明细记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>补助统计记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡片明细记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡片统计表</t>
+  </si>
+  <si>
+    <t>错扣补款报表</t>
+  </si>
+  <si>
+    <t>收支明细记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收支统计记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消费明细表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>错扣补款报表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消费统计报表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>营业报表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>财务报表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水控管理系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水控设备管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水控费率配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水控流量计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水控设备分配</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水控使用状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电控管理系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电控设备管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电控费率配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电控设备分配</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电控使用状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用电统计表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>门控管理系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>门禁设备管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户门禁权限分配</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询用户门禁权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询房间门禁权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>门禁设备分配</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>门禁开门记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智能控制系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红外设备管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红外设备分配</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空调控制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智慧班牌系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教师任课</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特殊考勤课程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能室课程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>班牌设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>班主任</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>班级星级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>班训管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流动红旗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>班级风采</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通知公告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信息终端</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>终端分配</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结算报表中心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存取报表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消费报表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水控报表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电控报表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>门控报表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他报表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一级模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二级模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户信息配置</t>
+  </si>
+  <si>
+    <t>系统参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据字典</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作站管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡类管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>由用户输入注册的相关密钥，完成系统相关授权。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜单定义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜单权限定义</t>
+  </si>
+  <si>
+    <t>系统权限管理</t>
+  </si>
+  <si>
+    <t>角色管理</t>
+  </si>
+  <si>
+    <t>岗位管理</t>
+  </si>
+  <si>
+    <t>部门管理</t>
+  </si>
+  <si>
+    <t>角色菜单授权</t>
+  </si>
+  <si>
+    <t>用户管理</t>
+  </si>
+  <si>
+    <t>操作员绑定</t>
+  </si>
+  <si>
+    <t>学校信息管理</t>
+  </si>
+  <si>
+    <t>学校信息</t>
+  </si>
+  <si>
+    <t>校区信息</t>
+  </si>
+  <si>
+    <t>校历</t>
+  </si>
+  <si>
+    <t>作息时间</t>
+  </si>
+  <si>
+    <t>学生管理</t>
+  </si>
+  <si>
+    <t>教师管理</t>
+  </si>
+  <si>
+    <t>基础课程</t>
+  </si>
+  <si>
+    <t>建筑物管理</t>
+  </si>
+  <si>
+    <t>房间定义</t>
+  </si>
+  <si>
+    <t>办公室分配</t>
+  </si>
+  <si>
+    <t>学生宿舍分配</t>
+  </si>
+  <si>
+    <t>教师宿舍分配</t>
+  </si>
+  <si>
+    <t>建筑物信息管理</t>
+  </si>
+  <si>
+    <t>商户管理</t>
+  </si>
+  <si>
+    <t>结算账户管理</t>
+  </si>
+  <si>
+    <t>营业员管理</t>
+  </si>
+  <si>
+    <t>营业时段管理</t>
+  </si>
+  <si>
+    <t>设备信息管理</t>
+  </si>
+  <si>
+    <t>前置服务器</t>
+  </si>
+  <si>
+    <t>网关管理</t>
+  </si>
+  <si>
+    <t>卡片管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>补助设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户钱包管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>？暂无此模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报表信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用水统计表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红外品牌管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房间红外设备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -25,16 +479,38 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -42,30 +518,192 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -343,37 +981,1329 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.109375" customWidth="1"/>
+    <col min="2" max="2" width="19.21875" customWidth="1"/>
+    <col min="3" max="3" width="16.109375" customWidth="1"/>
+    <col min="4" max="4" width="50.5546875" customWidth="1"/>
+    <col min="5" max="5" width="14.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="29.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="10"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="10"/>
+      <c r="B7" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="10"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="10"/>
+      <c r="B9" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="10"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="10"/>
+      <c r="B15" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="1:5" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="10"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="1:5" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="1:5" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="10"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="1:5" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="10"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="1:5" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="10"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="1:5" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="10"/>
+      <c r="B22" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="1:5" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="10"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="1:5" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="10"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+    </row>
+    <row r="25" spans="1:5" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="10"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+    </row>
+    <row r="26" spans="1:5" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="10"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+    </row>
+    <row r="27" spans="1:5" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="10"/>
+      <c r="B27" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+    </row>
+    <row r="28" spans="1:5" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="10"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+    </row>
+    <row r="29" spans="1:5" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="10"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+    </row>
+    <row r="30" spans="1:5" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="10"/>
+      <c r="B30" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+    </row>
+    <row r="31" spans="1:5" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="11"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A2:A31"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B9:B14"/>
+    <mergeCell ref="B15:B21"/>
+    <mergeCell ref="B22:B26"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B30:B31"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.21875" customWidth="1"/>
+    <col min="2" max="2" width="26.109375" customWidth="1"/>
+    <col min="3" max="3" width="16.88671875" customWidth="1"/>
+    <col min="4" max="4" width="21.21875" customWidth="1"/>
+    <col min="5" max="5" width="21.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.44140625" customWidth="1"/>
+    <col min="2" max="2" width="18" style="8" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="30.44140625" customWidth="1"/>
+    <col min="5" max="5" width="17.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="29.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="12"/>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="12"/>
+      <c r="B4" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="12"/>
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="12"/>
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="12"/>
+      <c r="B7" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="12"/>
+      <c r="B8" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="12"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="12"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="12"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="12"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="12"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="12"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A14"/>
+    <mergeCell ref="B8:B14"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="A2:XFD2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.21875" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" customWidth="1"/>
+    <col min="3" max="3" width="18.5546875" customWidth="1"/>
+    <col min="4" max="4" width="28.5546875" customWidth="1"/>
+    <col min="5" max="5" width="28.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="10"/>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="10"/>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="10"/>
+      <c r="B5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="10"/>
+      <c r="B6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="10"/>
+      <c r="B7" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="10"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="10"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="10"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="11"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B7:B11"/>
+    <mergeCell ref="A2:A11"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.44140625" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" customWidth="1"/>
+    <col min="3" max="3" width="17.88671875" customWidth="1"/>
+    <col min="4" max="4" width="24" customWidth="1"/>
+    <col min="5" max="5" width="18.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="12"/>
+      <c r="B3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="12"/>
+      <c r="B4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="12"/>
+      <c r="B5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="12"/>
+      <c r="B6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="12"/>
+      <c r="B7" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:A7"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.88671875" customWidth="1"/>
+    <col min="2" max="2" width="19.21875" style="6" customWidth="1"/>
+    <col min="3" max="3" width="16.88671875" customWidth="1"/>
+    <col min="4" max="4" width="23.21875" customWidth="1"/>
+    <col min="5" max="5" width="19.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="7" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" spans="1:5" s="7" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="12"/>
+      <c r="B3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" spans="1:5" s="7" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="12"/>
+      <c r="B4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" spans="1:5" s="7" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="12"/>
+      <c r="B5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" spans="1:5" s="7" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="12"/>
+      <c r="B6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:A6"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.88671875" customWidth="1"/>
+    <col min="2" max="2" width="19.5546875" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" customWidth="1"/>
+    <col min="4" max="4" width="29.88671875" customWidth="1"/>
+    <col min="5" max="5" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="10"/>
+      <c r="B3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="10"/>
+      <c r="B4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="10"/>
+      <c r="B5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="10"/>
+      <c r="B6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="11"/>
+      <c r="B7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:A7"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.33203125" customWidth="1"/>
+    <col min="2" max="2" width="24.21875" style="6" customWidth="1"/>
+    <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="4" max="4" width="16.77734375" customWidth="1"/>
+    <col min="5" max="5" width="18.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="12"/>
+      <c r="B3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="12"/>
+      <c r="B4" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="12"/>
+      <c r="B5" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="12"/>
+      <c r="B6" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:A6"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.88671875" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" customWidth="1"/>
+    <col min="3" max="4" width="29.109375" customWidth="1"/>
+    <col min="5" max="5" width="19.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="12"/>
+      <c r="B3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="12"/>
+      <c r="B4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="12"/>
+      <c r="B5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="12"/>
+      <c r="B6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="12"/>
+      <c r="B7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="12"/>
+      <c r="B8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="12"/>
+      <c r="B9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="12"/>
+      <c r="B10" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="12"/>
+      <c r="B11" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="12"/>
+      <c r="B12" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="12"/>
+      <c r="B13" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="12"/>
+      <c r="B14" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:A14"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.77734375" customWidth="1"/>
+    <col min="2" max="2" width="19.5546875" style="8" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" customWidth="1"/>
+    <col min="4" max="4" width="26.88671875" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="12"/>
+      <c r="B3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="12"/>
+      <c r="B4" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="12"/>
+      <c r="B5" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="12"/>
+      <c r="B6" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="12"/>
+      <c r="B7" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:A7"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/迁移相关/Q1模块划分.xlsx
+++ b/迁移相关/Q1模块划分.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="综合管理系统" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="118">
   <si>
     <t>综合管理系统</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -44,14 +44,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>错扣补款</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>充值/退款</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>消费管理系统</t>
   </si>
   <si>
@@ -90,380 +82,385 @@
     <t>卡片统计表</t>
   </si>
   <si>
+    <t>收支统计记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消费明细表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>错扣补款报表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消费统计报表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>营业报表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>财务报表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水控管理系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水控设备管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水控费率配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水控流量计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水控设备分配</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水控使用状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电控管理系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电控设备管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电控费率配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电控设备分配</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电控使用状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用电统计表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>门控管理系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>门禁设备管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户门禁权限分配</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询用户门禁权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询房间门禁权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>门禁设备分配</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>门禁开门记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智能控制系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红外设备管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红外设备分配</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空调控制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智慧班牌系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教师任课</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特殊考勤课程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能室课程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>班牌设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>班主任</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>班级星级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>班训管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流动红旗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>班级风采</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通知公告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信息终端</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>终端分配</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结算报表中心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存取报表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消费报表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水控报表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电控报表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>门控报表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他报表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一级模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二级模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户信息配置</t>
+  </si>
+  <si>
+    <t>系统参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据字典</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作站管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡类管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>由用户输入注册的相关密钥，完成系统相关授权。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜单定义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜单权限定义</t>
+  </si>
+  <si>
+    <t>系统权限管理</t>
+  </si>
+  <si>
+    <t>角色管理</t>
+  </si>
+  <si>
+    <t>岗位管理</t>
+  </si>
+  <si>
+    <t>部门管理</t>
+  </si>
+  <si>
+    <t>角色菜单授权</t>
+  </si>
+  <si>
+    <t>用户管理</t>
+  </si>
+  <si>
+    <t>操作员绑定</t>
+  </si>
+  <si>
+    <t>学校信息管理</t>
+  </si>
+  <si>
+    <t>学校信息</t>
+  </si>
+  <si>
+    <t>校区信息</t>
+  </si>
+  <si>
+    <t>校历</t>
+  </si>
+  <si>
+    <t>作息时间</t>
+  </si>
+  <si>
+    <t>学生管理</t>
+  </si>
+  <si>
+    <t>教师管理</t>
+  </si>
+  <si>
+    <t>基础课程</t>
+  </si>
+  <si>
+    <t>建筑物管理</t>
+  </si>
+  <si>
+    <t>房间定义</t>
+  </si>
+  <si>
+    <t>办公室分配</t>
+  </si>
+  <si>
+    <t>学生宿舍分配</t>
+  </si>
+  <si>
+    <t>教师宿舍分配</t>
+  </si>
+  <si>
+    <t>建筑物信息管理</t>
+  </si>
+  <si>
+    <t>商户管理</t>
+  </si>
+  <si>
+    <t>结算账户管理</t>
+  </si>
+  <si>
+    <t>营业员管理</t>
+  </si>
+  <si>
+    <t>营业时段管理</t>
+  </si>
+  <si>
+    <t>设备信息管理</t>
+  </si>
+  <si>
+    <t>前置服务器</t>
+  </si>
+  <si>
+    <t>网关管理</t>
+  </si>
+  <si>
+    <t>报表信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用水统计表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红外品牌管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房间红外设备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡片管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>补助设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>错扣补款+充值/退款+挂失/解挂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个用户允许有多张卡，一个用户允许有多个钱包，钱包只与用户绑定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>错扣补款报表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>收支明细记录</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>收支统计记录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消费明细表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>错扣补款报表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消费统计报表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>营业报表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>财务报表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>水控管理系统</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>水控设备管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>水控费率配置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>水控流量计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>水控设备分配</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>水控使用状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电控管理系统</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电控设备管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电控费率配置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电控设备分配</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电控使用状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用电统计表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>门控管理系统</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>门禁设备管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户门禁权限分配</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查询用户门禁权限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查询房间门禁权限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>门禁设备分配</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>门禁开门记录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>智能控制系统</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>红外设备管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>红外设备分配</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>空调控制</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>智慧班牌系统</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>课程表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>教师任课</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>特殊考勤课程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>功能室课程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>班牌设置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>班主任</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>班级星级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>班训管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>流动红旗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>班级风采</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>通知公告</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>信息终端</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>终端分配</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>结算报表中心</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>存取报表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消费报表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>水控报表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电控报表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>门控报表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>其他报表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统模块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一级模块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二级模块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户信息配置</t>
-  </si>
-  <si>
-    <t>系统参数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据字典</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工作站管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卡类管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成情况</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>由用户输入注册的相关密钥，完成系统相关授权。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>菜单定义</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>菜单权限定义</t>
-  </si>
-  <si>
-    <t>系统权限管理</t>
-  </si>
-  <si>
-    <t>角色管理</t>
-  </si>
-  <si>
-    <t>岗位管理</t>
-  </si>
-  <si>
-    <t>部门管理</t>
-  </si>
-  <si>
-    <t>角色菜单授权</t>
-  </si>
-  <si>
-    <t>用户管理</t>
-  </si>
-  <si>
-    <t>操作员绑定</t>
-  </si>
-  <si>
-    <t>学校信息管理</t>
-  </si>
-  <si>
-    <t>学校信息</t>
-  </si>
-  <si>
-    <t>校区信息</t>
-  </si>
-  <si>
-    <t>校历</t>
-  </si>
-  <si>
-    <t>作息时间</t>
-  </si>
-  <si>
-    <t>学生管理</t>
-  </si>
-  <si>
-    <t>教师管理</t>
-  </si>
-  <si>
-    <t>基础课程</t>
-  </si>
-  <si>
-    <t>建筑物管理</t>
-  </si>
-  <si>
-    <t>房间定义</t>
-  </si>
-  <si>
-    <t>办公室分配</t>
-  </si>
-  <si>
-    <t>学生宿舍分配</t>
-  </si>
-  <si>
-    <t>教师宿舍分配</t>
-  </si>
-  <si>
-    <t>建筑物信息管理</t>
-  </si>
-  <si>
-    <t>商户管理</t>
-  </si>
-  <si>
-    <t>结算账户管理</t>
-  </si>
-  <si>
-    <t>营业员管理</t>
-  </si>
-  <si>
-    <t>营业时段管理</t>
-  </si>
-  <si>
-    <t>设备信息管理</t>
-  </si>
-  <si>
-    <t>前置服务器</t>
-  </si>
-  <si>
-    <t>网关管理</t>
-  </si>
-  <si>
-    <t>卡片管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>补助设置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户钱包管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>？暂无此模块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>报表信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用水统计表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>暂无</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>红外品牌管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>房间红外设备</t>
+    <t>房间钱包规则</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -574,7 +571,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -611,6 +608,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -984,8 +984,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30:B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -999,19 +999,19 @@
   <sheetData>
     <row r="1" spans="1:5" ht="29.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1022,7 +1022,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -1031,7 +1031,7 @@
       <c r="A3" s="10"/>
       <c r="B3" s="10"/>
       <c r="C3" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -1040,7 +1040,7 @@
       <c r="A4" s="10"/>
       <c r="B4" s="10"/>
       <c r="C4" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -1049,7 +1049,7 @@
       <c r="A5" s="10"/>
       <c r="B5" s="10"/>
       <c r="C5" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -1058,10 +1058,10 @@
       <c r="A6" s="10"/>
       <c r="B6" s="11"/>
       <c r="C6" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E6" s="1"/>
     </row>
@@ -1071,7 +1071,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -1080,7 +1080,7 @@
       <c r="A8" s="10"/>
       <c r="B8" s="11"/>
       <c r="C8" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -1088,10 +1088,10 @@
     <row r="9" spans="1:5" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10"/>
       <c r="B9" s="9" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -1100,7 +1100,7 @@
       <c r="A10" s="10"/>
       <c r="B10" s="10"/>
       <c r="C10" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -1109,7 +1109,7 @@
       <c r="A11" s="10"/>
       <c r="B11" s="10"/>
       <c r="C11" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -1118,7 +1118,7 @@
       <c r="A12" s="10"/>
       <c r="B12" s="10"/>
       <c r="C12" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -1127,7 +1127,7 @@
       <c r="A13" s="10"/>
       <c r="B13" s="10"/>
       <c r="C13" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -1136,7 +1136,7 @@
       <c r="A14" s="10"/>
       <c r="B14" s="11"/>
       <c r="C14" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -1144,10 +1144,10 @@
     <row r="15" spans="1:5" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10"/>
       <c r="B15" s="9" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -1156,7 +1156,7 @@
       <c r="A16" s="10"/>
       <c r="B16" s="10"/>
       <c r="C16" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -1165,7 +1165,7 @@
       <c r="A17" s="10"/>
       <c r="B17" s="10"/>
       <c r="C17" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -1174,7 +1174,7 @@
       <c r="A18" s="10"/>
       <c r="B18" s="10"/>
       <c r="C18" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -1183,7 +1183,7 @@
       <c r="A19" s="10"/>
       <c r="B19" s="10"/>
       <c r="C19" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -1192,7 +1192,7 @@
       <c r="A20" s="10"/>
       <c r="B20" s="10"/>
       <c r="C20" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -1201,7 +1201,7 @@
       <c r="A21" s="10"/>
       <c r="B21" s="11"/>
       <c r="C21" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -1209,10 +1209,10 @@
     <row r="22" spans="1:5" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="10"/>
       <c r="B22" s="9" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -1221,7 +1221,7 @@
       <c r="A23" s="10"/>
       <c r="B23" s="10"/>
       <c r="C23" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -1230,7 +1230,7 @@
       <c r="A24" s="10"/>
       <c r="B24" s="10"/>
       <c r="C24" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
@@ -1239,7 +1239,7 @@
       <c r="A25" s="10"/>
       <c r="B25" s="10"/>
       <c r="C25" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -1248,7 +1248,7 @@
       <c r="A26" s="10"/>
       <c r="B26" s="11"/>
       <c r="C26" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
@@ -1256,10 +1256,10 @@
     <row r="27" spans="1:5" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="10"/>
       <c r="B27" s="9" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -1268,7 +1268,7 @@
       <c r="A28" s="10"/>
       <c r="B28" s="10"/>
       <c r="C28" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
@@ -1277,7 +1277,7 @@
       <c r="A29" s="10"/>
       <c r="B29" s="11"/>
       <c r="C29" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
@@ -1285,10 +1285,10 @@
     <row r="30" spans="1:5" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="10"/>
       <c r="B30" s="9" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
@@ -1297,7 +1297,7 @@
       <c r="A31" s="11"/>
       <c r="B31" s="11"/>
       <c r="C31" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
@@ -1324,7 +1324,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="P29" sqref="P29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1338,24 +1338,24 @@
   <sheetData>
     <row r="1" spans="1:5" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -1366,10 +1366,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1377,25 +1377,25 @@
     <col min="1" max="1" width="21.44140625" customWidth="1"/>
     <col min="2" max="2" width="18" style="8" customWidth="1"/>
     <col min="3" max="3" width="19.6640625" style="8" customWidth="1"/>
-    <col min="4" max="4" width="30.44140625" customWidth="1"/>
-    <col min="5" max="5" width="17.77734375" customWidth="1"/>
+    <col min="4" max="4" width="44" customWidth="1"/>
+    <col min="5" max="5" width="68" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="29.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1403,11 +1403,15 @@
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C2" s="1"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
+      <c r="D2" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="3" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12"/>
@@ -1421,7 +1425,7 @@
     <row r="4" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12"/>
       <c r="B4" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="2"/>
@@ -1429,40 +1433,38 @@
     </row>
     <row r="5" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="12"/>
-      <c r="B5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="1"/>
+      <c r="B5" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12"/>
-      <c r="B6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="1"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12"/>
-      <c r="B7" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="3" t="s">
-        <v>113</v>
-      </c>
+      <c r="B7" s="12"/>
+      <c r="C7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="12"/>
-      <c r="B8" s="12" t="s">
-        <v>114</v>
-      </c>
+      <c r="B8" s="12"/>
       <c r="C8" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -1471,7 +1473,7 @@
       <c r="A9" s="12"/>
       <c r="B9" s="12"/>
       <c r="C9" s="1" t="s">
-        <v>16</v>
+        <v>115</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -1480,7 +1482,7 @@
       <c r="A10" s="12"/>
       <c r="B10" s="12"/>
       <c r="C10" s="1" t="s">
-        <v>13</v>
+        <v>116</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -1489,42 +1491,15 @@
       <c r="A11" s="12"/>
       <c r="B11" s="12"/>
       <c r="C11" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="12"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="12"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="12"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-    </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A2:A14"/>
-    <mergeCell ref="B8:B14"/>
+    <mergeCell ref="A2:A11"/>
+    <mergeCell ref="B5:B11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1533,10 +1508,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="A2:XFD2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1550,27 +1525,27 @@
   <sheetData>
     <row r="1" spans="1:5" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="2"/>
@@ -1579,7 +1554,7 @@
     <row r="3" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10"/>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="2"/>
@@ -1588,7 +1563,7 @@
     <row r="4" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10"/>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="2"/>
@@ -1597,7 +1572,7 @@
     <row r="5" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10"/>
       <c r="B5" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="2"/>
@@ -1606,7 +1581,7 @@
     <row r="6" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10"/>
       <c r="B6" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="2"/>
@@ -1615,10 +1590,10 @@
     <row r="7" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10"/>
       <c r="B7" s="13" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -1627,7 +1602,7 @@
       <c r="A8" s="10"/>
       <c r="B8" s="13"/>
       <c r="C8" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -1636,7 +1611,7 @@
       <c r="A9" s="10"/>
       <c r="B9" s="13"/>
       <c r="C9" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -1645,7 +1620,7 @@
       <c r="A10" s="10"/>
       <c r="B10" s="13"/>
       <c r="C10" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -1654,10 +1629,15 @@
       <c r="A11" s="11"/>
       <c r="B11" s="13"/>
       <c r="C11" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="14" t="s">
+        <v>117</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1674,7 +1654,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1688,27 +1668,27 @@
   <sheetData>
     <row r="1" spans="1:5" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -1717,7 +1697,7 @@
     <row r="3" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12"/>
       <c r="B3" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -1726,7 +1706,7 @@
     <row r="4" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12"/>
       <c r="B4" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -1735,7 +1715,7 @@
     <row r="5" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="12"/>
       <c r="B5" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -1744,7 +1724,7 @@
     <row r="6" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12"/>
       <c r="B6" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -1753,7 +1733,7 @@
     <row r="7" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12"/>
       <c r="B7" s="1" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -1788,27 +1768,27 @@
   <sheetData>
     <row r="1" spans="1:5" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="7" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
@@ -1817,7 +1797,7 @@
     <row r="3" spans="1:5" s="7" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12"/>
       <c r="B3" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -1826,7 +1806,7 @@
     <row r="4" spans="1:5" s="7" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12"/>
       <c r="B4" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -1835,7 +1815,7 @@
     <row r="5" spans="1:5" s="7" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="12"/>
       <c r="B5" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -1844,7 +1824,7 @@
     <row r="6" spans="1:5" s="7" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12"/>
       <c r="B6" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -1878,27 +1858,27 @@
   <sheetData>
     <row r="1" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -1907,7 +1887,7 @@
     <row r="3" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10"/>
       <c r="B3" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -1916,7 +1896,7 @@
     <row r="4" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10"/>
       <c r="B4" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -1925,7 +1905,7 @@
     <row r="5" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10"/>
       <c r="B5" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -1934,7 +1914,7 @@
     <row r="6" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10"/>
       <c r="B6" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -1943,7 +1923,7 @@
     <row r="7" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11"/>
       <c r="B7" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -1962,8 +1942,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1977,27 +1957,27 @@
   <sheetData>
     <row r="1" spans="1:5" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -2006,7 +1986,7 @@
     <row r="3" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12"/>
       <c r="B3" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -2015,7 +1995,7 @@
     <row r="4" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12"/>
       <c r="B4" s="3" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -2024,7 +2004,7 @@
     <row r="5" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="12"/>
       <c r="B5" s="3" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -2033,7 +2013,7 @@
     <row r="6" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12"/>
       <c r="B6" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -2053,7 +2033,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2066,27 +2046,27 @@
   <sheetData>
     <row r="1" spans="1:5" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -2095,7 +2075,7 @@
     <row r="3" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12"/>
       <c r="B3" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -2104,7 +2084,7 @@
     <row r="4" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12"/>
       <c r="B4" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -2113,7 +2093,7 @@
     <row r="5" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="12"/>
       <c r="B5" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -2122,7 +2102,7 @@
     <row r="6" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12"/>
       <c r="B6" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -2131,7 +2111,7 @@
     <row r="7" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12"/>
       <c r="B7" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -2140,7 +2120,7 @@
     <row r="8" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="12"/>
       <c r="B8" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -2149,7 +2129,7 @@
     <row r="9" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="12"/>
       <c r="B9" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -2158,7 +2138,7 @@
     <row r="10" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="12"/>
       <c r="B10" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -2167,7 +2147,7 @@
     <row r="11" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12"/>
       <c r="B11" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -2176,7 +2156,7 @@
     <row r="12" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="12"/>
       <c r="B12" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -2185,7 +2165,7 @@
     <row r="13" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12"/>
       <c r="B13" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -2194,7 +2174,7 @@
     <row r="14" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
       <c r="B14" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -2214,7 +2194,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2228,27 +2208,27 @@
   <sheetData>
     <row r="1" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -2257,7 +2237,7 @@
     <row r="3" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12"/>
       <c r="B3" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -2266,7 +2246,7 @@
     <row r="4" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12"/>
       <c r="B4" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -2275,7 +2255,7 @@
     <row r="5" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="12"/>
       <c r="B5" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -2284,7 +2264,7 @@
     <row r="6" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12"/>
       <c r="B6" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -2293,7 +2273,7 @@
     <row r="7" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12"/>
       <c r="B7" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
